--- a/页面对照表.xlsx
+++ b/页面对照表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>index.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -30,7 +30,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>活动中心列表页</t>
+    <t>03活动中心01活动列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>activity-con.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03活动中心02活动详细-可以报名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03活动中心03活动详细-活动结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03活动中心04报名名单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -74,8 +90,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -377,16 +396,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="A1:XFD1048576"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.109375" customWidth="1"/>
-    <col min="2" max="2" width="29.44140625" customWidth="1"/>
+    <col min="2" max="2" width="49.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -405,7 +424,30 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:A5"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/页面对照表.xlsx
+++ b/页面对照表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>index.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,6 +47,38 @@
   </si>
   <si>
     <t>03活动中心04报名名单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02创发会简介01协会概况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02创发会简介02组织结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02创发会简介04商会章程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02创发会简介05_01发展动态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02创发会简介05_02发展动态_详细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02创发会简介06大事记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02创发会简介07联系我们</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> intro.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -396,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -442,6 +474,44 @@
       <c r="A5" s="1"/>
       <c r="B5" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/页面对照表.xlsx
+++ b/页面对照表.xlsx
@@ -1,105 +1,96 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView windowWidth="22960" windowHeight="10160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
   <si>
     <t>index.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>首页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>activity.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>03活动中心01活动列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>activity-con.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>03活动中心02活动详细-可以报名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>03活动中心03活动详细-活动结束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>03活动中心04报名名单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> intro.html</t>
   </si>
   <si>
     <t>02创发会简介01协会概况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>02创发会简介02组织结构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intro-rule.html</t>
   </si>
   <si>
     <t>02创发会简介04商会章程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>02创发会简介05_01发展动态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>02创发会简介05_02发展动态_详细</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>02创发会简介06大事记</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>02创发会简介07联系我们</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> intro.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="12"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -119,25 +110,40 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
+    <cellStyle name="百分比" xfId="4" builtinId="5"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -187,71 +193,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Khmr" typeface="DaunPenh"/>
         <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -384,8 +390,8 @@
             <a:gs pos="40000">
               <a:schemeClr val="phClr">
                 <a:tint val="45000"/>
+                <a:satMod val="350000"/>
                 <a:shade val="99000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
@@ -421,26 +427,68 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="_h" fmla="val 21600"/>
+            <a:gd name="_w" fmla="val 21600"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:pathLst>
+            <a:path w="21600" h="21600"/>
+          </a:pathLst>
+        </a:custGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="200000"/>
+        </a:ln>
+      </a:spPr>
+      <a:bodyPr/>
+      <a:lstStyle/>
+    </a:spDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="26.109375" customWidth="1"/>
-    <col min="2" max="2" width="49.109375" customWidth="1"/>
+    <col min="1" max="1" width="26.1111111111111" customWidth="1"/>
+    <col min="2" max="2" width="49.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -448,7 +496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -456,7 +504,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -464,88 +512,99 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="1"/>
       <c r="B5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A3:A5"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/页面对照表.xlsx
+++ b/页面对照表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
   <si>
     <t>index.html</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>02创发会简介05_01发展动态</t>
+  </si>
+  <si>
+    <t>intro-list-con.html</t>
   </si>
   <si>
     <t>02创发会简介05_02发展动态_详细</t>
@@ -479,7 +482,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -550,19 +553,22 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="2:2">
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/页面对照表.xlsx
+++ b/页面对照表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
   <si>
     <t>index.html</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>02创发会简介04商会章程</t>
+  </si>
+  <si>
+    <t>intro-list.html</t>
   </si>
   <si>
     <t>02创发会简介05_01发展动态</t>
@@ -482,7 +485,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -548,27 +551,30 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="2:2">
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/页面对照表.xlsx
+++ b/页面对照表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22960" windowHeight="10160"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22956" windowHeight="10164"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>index.html</t>
   </si>
@@ -63,29 +63,36 @@
     <t>02创发会简介05_01发展动态</t>
   </si>
   <si>
+    <t>02创发会简介05_02发展动态_详细</t>
+  </si>
+  <si>
+    <t>02创发会简介06大事记</t>
+  </si>
+  <si>
+    <t>02创发会简介07联系我们</t>
+  </si>
+  <si>
+    <t>入会须知与条款（临时页面未完成）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intro-join.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>intro-list-con.html</t>
-  </si>
-  <si>
-    <t>02创发会简介05_02发展动态_详细</t>
-  </si>
-  <si>
-    <t>02创发会简介06大事记</t>
-  </si>
-  <si>
-    <t>02创发会简介07联系我们</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intro-connect.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -94,8 +101,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -116,23 +124,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -142,14 +135,16 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="百分比" xfId="4" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -448,6 +443,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -480,21 +476,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.1111111111111" customWidth="1"/>
-    <col min="2" max="2" width="49.1111111111111" customWidth="1"/>
+    <col min="1" max="1" width="26.109375" customWidth="1"/>
+    <col min="2" max="2" width="49.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -502,7 +497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -510,7 +505,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -518,19 +513,19 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -538,12 +533,20 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -551,7 +554,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -559,63 +562,63 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
         <v>15</v>
       </c>
-      <c r="B11" t="s">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="2:2">
-      <c r="B12" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2">
-      <c r="B13" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A3:A5"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/页面对照表.xlsx
+++ b/页面对照表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>index.html</t>
   </si>
@@ -85,6 +85,10 @@
   </si>
   <si>
     <t>intro-connect.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intro-structure.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -480,7 +484,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -534,6 +538,9 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>

--- a/页面对照表.xlsx
+++ b/页面对照表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22956" windowHeight="10164"/>
+    <workbookView windowWidth="22960" windowHeight="10160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
   <si>
     <t>index.html</t>
   </si>
@@ -42,15 +42,24 @@
     <t>03活动中心04报名名单</t>
   </si>
   <si>
-    <t xml:space="preserve"> intro.html</t>
+    <t>intro.html</t>
   </si>
   <si>
     <t>02创发会简介01协会概况</t>
   </si>
   <si>
+    <t>intro-structure.html</t>
+  </si>
+  <si>
     <t>02创发会简介02组织结构</t>
   </si>
   <si>
+    <t>intro-join.html</t>
+  </si>
+  <si>
+    <t>入会须知与条款（临时页面未完成）</t>
+  </si>
+  <si>
     <t>intro-rule.html</t>
   </si>
   <si>
@@ -63,49 +72,38 @@
     <t>02创发会简介05_01发展动态</t>
   </si>
   <si>
+    <t>intro-list-con.html</t>
+  </si>
+  <si>
     <t>02创发会简介05_02发展动态_详细</t>
   </si>
   <si>
+    <t>intro-event.html</t>
+  </si>
+  <si>
     <t>02创发会简介06大事记</t>
   </si>
   <si>
+    <t>intro-connect.html</t>
+  </si>
+  <si>
     <t>02创发会简介07联系我们</t>
-  </si>
-  <si>
-    <t>入会须知与条款（临时页面未完成）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>intro-join.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>intro-list-con.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>intro-connect.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>intro-structure.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -128,8 +126,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -139,16 +152,14 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
+    <cellStyle name="百分比" xfId="4" builtinId="5"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -447,18 +458,17 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
         </a:custGeom>
         <a:gradFill rotWithShape="0">
           <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
             <a:gs pos="100000">
               <a:srgbClr val="9CBEE0"/>
-            </a:gs>
-            <a:gs pos="0">
-              <a:srgbClr val="BBD5F0"/>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
@@ -480,20 +490,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="26.109375" customWidth="1"/>
-    <col min="2" max="2" width="49.109375" customWidth="1"/>
+    <col min="1" max="1" width="26.1111111111111" customWidth="1"/>
+    <col min="2" max="2" width="49.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -501,7 +512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -509,7 +520,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -517,19 +528,19 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="1"/>
       <c r="B5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -537,95 +548,101 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A3:A5"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/页面对照表.xlsx
+++ b/页面对照表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
   <si>
     <t>index.html</t>
   </si>
@@ -88,6 +88,42 @@
   </si>
   <si>
     <t>02创发会简介07联系我们</t>
+  </si>
+  <si>
+    <t>resource-home.html</t>
+  </si>
+  <si>
+    <t>04资源平台01家人风采</t>
+  </si>
+  <si>
+    <t>resource-home-con.html</t>
+  </si>
+  <si>
+    <t>04资源平台01家人风采_01详细页</t>
+  </si>
+  <si>
+    <t>04资源平台02 组织成员</t>
+  </si>
+  <si>
+    <t>04资源平台03会员通讯录</t>
+  </si>
+  <si>
+    <t>04资源平台04企业目录</t>
+  </si>
+  <si>
+    <t>04资源平台04企业目录_01企业详细</t>
+  </si>
+  <si>
+    <t>resource-info.html</t>
+  </si>
+  <si>
+    <t>04资源平台05供求信息</t>
+  </si>
+  <si>
+    <t>resource-info-con.html</t>
+  </si>
+  <si>
+    <t>04资源平台05供求信息_01详细页</t>
   </si>
 </sst>
 </file>
@@ -492,10 +528,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -602,6 +638,58 @@
       </c>
       <c r="B13" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/页面对照表.xlsx
+++ b/页面对照表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
   <si>
     <t>index.html</t>
   </si>
@@ -102,7 +102,13 @@
     <t>04资源平台01家人风采_01详细页</t>
   </si>
   <si>
+    <t>resource-people.html</t>
+  </si>
+  <si>
     <t>04资源平台02 组织成员</t>
+  </si>
+  <si>
+    <t>resource-people-add.html</t>
   </si>
   <si>
     <t>04资源平台03会员通讯录</t>
@@ -531,7 +537,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -656,40 +662,46 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="2:2">
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
       <c r="B16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/页面对照表.xlsx
+++ b/页面对照表.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\cyfz\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="22960" windowHeight="10160"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22956" windowHeight="10164"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>index.html</t>
   </si>
@@ -130,22 +135,30 @@
   </si>
   <si>
     <t>04资源平台05供求信息_01详细页</t>
+  </si>
+  <si>
+    <t>resource-company.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource-company-con.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -168,23 +181,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -194,14 +192,19 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="百分比" xfId="4" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -500,6 +503,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -532,21 +536,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.1111111111111" customWidth="1"/>
-    <col min="2" max="2" width="49.1111111111111" customWidth="1"/>
+    <col min="1" max="1" width="35.21875" customWidth="1"/>
+    <col min="2" max="2" width="49.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -554,7 +557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -562,7 +565,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -570,19 +573,19 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -590,7 +593,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -598,7 +601,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -606,7 +609,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -614,7 +617,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -622,7 +625,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -630,7 +633,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -638,7 +641,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -646,7 +649,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -654,7 +657,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -662,7 +665,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -670,7 +673,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -678,17 +681,23 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
       <c r="B18" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
       <c r="B19" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -696,7 +705,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -708,41 +717,38 @@
   <mergeCells count="1">
     <mergeCell ref="A3:A5"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/页面对照表.xlsx
+++ b/页面对照表.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>index.html</t>
   </si>
@@ -142,6 +142,22 @@
   </si>
   <si>
     <t>resource-company-con.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05分会组织01分会制度介绍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05分会组织02分会01组织成员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05分会组织02分会02企业目录(后面的活动直接跳转到活动对应的列表里即可)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>branch.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -537,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -711,6 +727,24 @@
       </c>
       <c r="B21" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/页面对照表.xlsx
+++ b/页面对照表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\cyfz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workstation\cyfz\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>index.html</t>
   </si>
@@ -158,6 +158,14 @@
   </si>
   <si>
     <t>branch.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>branch-chengyuan.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>branch-org.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -556,7 +564,7 @@
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -738,11 +746,17 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
       <c r="B23" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>45</v>
+      </c>
       <c r="B24" t="s">
         <v>42</v>
       </c>

--- a/页面对照表.xlsx
+++ b/页面对照表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22956" windowHeight="10164"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -165,7 +165,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>branch-org.html</t>
+    <t>branch-org.html(未建立)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>

--- a/页面对照表.xlsx
+++ b/页面对照表.xlsx
@@ -165,7 +165,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>branch-org.html(未建立)</t>
+    <t>branch-org.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>

--- a/页面对照表.xlsx
+++ b/页面对照表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workstation\cyfz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\cyfz\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>index.html</t>
   </si>
@@ -166,6 +166,22 @@
   </si>
   <si>
     <t>branch-org.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06个人中心01我的资料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06个人中心02活动中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06个人中心03修改密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>center-info.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -561,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -759,6 +775,24 @@
       </c>
       <c r="B24" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/页面对照表.xlsx
+++ b/页面对照表.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>index.html</t>
   </si>
@@ -182,6 +182,22 @@
   </si>
   <si>
     <t>center-info.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>center-list.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06个人中心04会员登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">center-ch-pass.html </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>center-login.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -577,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -786,13 +802,27 @@
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>50</v>
+      </c>
       <c r="B26" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
       <c r="B27" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/页面对照表.xlsx
+++ b/页面对照表.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\cyfz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workstation\cyfz\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18324" windowHeight="9372"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>index.html</t>
   </si>
@@ -35,169 +35,194 @@
     <t>03活动中心01活动列表</t>
   </si>
   <si>
+    <t>03活动中心02活动详细-可以报名</t>
+  </si>
+  <si>
+    <t>03活动中心03活动详细-活动结束</t>
+  </si>
+  <si>
+    <t>03活动中心04报名名单</t>
+  </si>
+  <si>
+    <t>intro.html</t>
+  </si>
+  <si>
+    <t>02创发会简介01协会概况</t>
+  </si>
+  <si>
+    <t>intro-structure.html</t>
+  </si>
+  <si>
+    <t>02创发会简介02组织结构</t>
+  </si>
+  <si>
+    <t>intro-join.html</t>
+  </si>
+  <si>
+    <t>入会须知与条款（临时页面未完成）</t>
+  </si>
+  <si>
+    <t>intro-rule.html</t>
+  </si>
+  <si>
+    <t>02创发会简介04商会章程</t>
+  </si>
+  <si>
+    <t>intro-list.html</t>
+  </si>
+  <si>
+    <t>02创发会简介05_01发展动态</t>
+  </si>
+  <si>
+    <t>intro-list-con.html</t>
+  </si>
+  <si>
+    <t>02创发会简介05_02发展动态_详细</t>
+  </si>
+  <si>
+    <t>intro-event.html</t>
+  </si>
+  <si>
+    <t>02创发会简介06大事记</t>
+  </si>
+  <si>
+    <t>intro-connect.html</t>
+  </si>
+  <si>
+    <t>02创发会简介07联系我们</t>
+  </si>
+  <si>
+    <t>resource-home.html</t>
+  </si>
+  <si>
+    <t>04资源平台01家人风采</t>
+  </si>
+  <si>
+    <t>resource-home-con.html</t>
+  </si>
+  <si>
+    <t>04资源平台01家人风采_01详细页</t>
+  </si>
+  <si>
+    <t>resource-people.html</t>
+  </si>
+  <si>
+    <t>04资源平台02 组织成员</t>
+  </si>
+  <si>
+    <t>resource-people-add.html</t>
+  </si>
+  <si>
+    <t>04资源平台03会员通讯录</t>
+  </si>
+  <si>
+    <t>04资源平台04企业目录</t>
+  </si>
+  <si>
+    <t>04资源平台04企业目录_01企业详细</t>
+  </si>
+  <si>
+    <t>resource-info.html</t>
+  </si>
+  <si>
+    <t>04资源平台05供求信息</t>
+  </si>
+  <si>
+    <t>resource-info-con.html</t>
+  </si>
+  <si>
+    <t>04资源平台05供求信息_01详细页</t>
+  </si>
+  <si>
+    <t>resource-company.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource-company-con.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05分会组织01分会制度介绍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05分会组织02分会01组织成员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05分会组织02分会02企业目录(后面的活动直接跳转到活动对应的列表里即可)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>branch.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>branch-chengyuan.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>branch-org.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06个人中心01我的资料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06个人中心02活动中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06个人中心03修改密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>center-info.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>center-list.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06个人中心04会员登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">center-ch-pass.html </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>center-login.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03活动中心05报名弹窗01登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03活动中心05报名弹窗02报名表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03活动中心05报名弹窗03成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>activity-con.html</t>
-  </si>
-  <si>
-    <t>03活动中心02活动详细-可以报名</t>
-  </si>
-  <si>
-    <t>03活动中心03活动详细-活动结束</t>
-  </si>
-  <si>
-    <t>03活动中心04报名名单</t>
-  </si>
-  <si>
-    <t>intro.html</t>
-  </si>
-  <si>
-    <t>02创发会简介01协会概况</t>
-  </si>
-  <si>
-    <t>intro-structure.html</t>
-  </si>
-  <si>
-    <t>02创发会简介02组织结构</t>
-  </si>
-  <si>
-    <t>intro-join.html</t>
-  </si>
-  <si>
-    <t>入会须知与条款（临时页面未完成）</t>
-  </si>
-  <si>
-    <t>intro-rule.html</t>
-  </si>
-  <si>
-    <t>02创发会简介04商会章程</t>
-  </si>
-  <si>
-    <t>intro-list.html</t>
-  </si>
-  <si>
-    <t>02创发会简介05_01发展动态</t>
-  </si>
-  <si>
-    <t>intro-list-con.html</t>
-  </si>
-  <si>
-    <t>02创发会简介05_02发展动态_详细</t>
-  </si>
-  <si>
-    <t>intro-event.html</t>
-  </si>
-  <si>
-    <t>02创发会简介06大事记</t>
-  </si>
-  <si>
-    <t>intro-connect.html</t>
-  </si>
-  <si>
-    <t>02创发会简介07联系我们</t>
-  </si>
-  <si>
-    <t>resource-home.html</t>
-  </si>
-  <si>
-    <t>04资源平台01家人风采</t>
-  </si>
-  <si>
-    <t>resource-home-con.html</t>
-  </si>
-  <si>
-    <t>04资源平台01家人风采_01详细页</t>
-  </si>
-  <si>
-    <t>resource-people.html</t>
-  </si>
-  <si>
-    <t>04资源平台02 组织成员</t>
-  </si>
-  <si>
-    <t>resource-people-add.html</t>
-  </si>
-  <si>
-    <t>04资源平台03会员通讯录</t>
-  </si>
-  <si>
-    <t>04资源平台04企业目录</t>
-  </si>
-  <si>
-    <t>04资源平台04企业目录_01企业详细</t>
-  </si>
-  <si>
-    <t>resource-info.html</t>
-  </si>
-  <si>
-    <t>04资源平台05供求信息</t>
-  </si>
-  <si>
-    <t>resource-info-con.html</t>
-  </si>
-  <si>
-    <t>04资源平台05供求信息_01详细页</t>
-  </si>
-  <si>
-    <t>resource-company.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource-company-con.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>05分会组织01分会制度介绍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>05分会组织02分会01组织成员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>05分会组织02分会02企业目录(后面的活动直接跳转到活动对应的列表里即可)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>branch.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>branch-chengyuan.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>branch-org.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>06个人中心01我的资料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>06个人中心02活动中心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>06个人中心03修改密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>center-info.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>center-list.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>06个人中心04会员登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">center-ch-pass.html </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>center-login.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>activity-win-log.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>activity-win-info.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>activity-win-succeed.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -593,10 +618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -623,206 +648,230 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
         <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
         <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
         <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
         <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
         <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
         <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
         <v>20</v>
-      </c>
-      <c r="B12" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
         <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
         <v>26</v>
-      </c>
-      <c r="B15" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
         <v>28</v>
-      </c>
-      <c r="B16" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
         <v>30</v>
-      </c>
-      <c r="B17" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s">
         <v>34</v>
-      </c>
-      <c r="B20" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" t="s">
         <v>36</v>
-      </c>
-      <c r="B21" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" t="s">
         <v>53</v>
       </c>
-      <c r="B28" t="s">
-        <v>51</v>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
